--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IK-LPC-020\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683804D8-20E3-4BCA-BB18-42C2F01AAEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6524E-A8CD-415D-94F3-101D523FC297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="3075" yWindow="4935" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,74 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>../PipelineLayoutTable.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceType : String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindFlags : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageFlags : Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArraySize : Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sampler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WrapLinear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fe6f153f-d693-4675-9b0e-65b8be91f35b</t>
+  </si>
+  <si>
+    <t>"ShaderResource"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,10 +165,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}" name="표1" displayName="표1" ref="A2:H11" totalsRowShown="0">
+  <autoFilter ref="A2:H11" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{36A100E7-56AC-420F-A1E5-97EB4F3C0948}" name="UUID : String"/>
+    <tableColumn id="2" xr3:uid="{78A49022-DCE6-4CA9-A406-02645D160AEF}" name="Count : Integer"/>
+    <tableColumn id="3" xr3:uid="{F3FD9AE5-975D-42C0-81B3-CC0CD5CB68D3}" name="Description : String"/>
+    <tableColumn id="4" xr3:uid="{67021DE1-F4B2-446A-AC67-143EED20391B}" name="ResourceType : String"/>
+    <tableColumn id="5" xr3:uid="{5FE1C201-465F-4487-8E84-D1B5E6C29FE3}" name="BindFlags : Array"/>
+    <tableColumn id="6" xr3:uid="{3C570FF2-8267-413D-98F3-65103D5420B0}" name="StageFlags : Array"/>
+    <tableColumn id="7" xr3:uid="{99703446-1FBF-4B80-9973-8037C7747D08}" name="Slot : Integer"/>
+    <tableColumn id="8" xr3:uid="{30DA032F-829B-489F-A32A-BC68CA4CE3F7}" name="ArraySize : Integer"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,13 +479,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6524E-A8CD-415D-94F3-101D523FC297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BCEB27-6207-40CB-8695-7AC148FFB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="4935" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1</v>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BCEB27-6207-40CB-8695-7AC148FFB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481D5C2-650E-4304-84D9-F2FEAF768196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>../PipelineLayoutTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,25 @@
   </si>
   <si>
     <t>"PS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>"ConstantBuffer"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerDebug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -564,6 +583,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481D5C2-650E-4304-84D9-F2FEAF768196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8E190-FBB1-4EE9-857D-46AFF6EF36BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8E190-FBB1-4EE9-857D-46AFF6EF36BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA10612-F5B3-4CB1-815A-20417A1E4EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>../PipelineLayoutTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Texture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sampler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,13 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fe6f153f-d693-4675-9b0e-65b8be91f35b</t>
-  </si>
-  <si>
-    <t>"ShaderResource"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"PS"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,11 +101,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"PS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PerDebug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +490,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,19 +534,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -567,17 +553,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -585,25 +580,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>1</v>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA10612-F5B3-4CB1-815A-20417A1E4EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521423A-07E0-496D-9B3A-7414AE410C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>../PipelineLayoutTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,17 @@
   </si>
   <si>
     <t>Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deferred Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WrapLinear</t>
+  </si>
+  <si>
+    <t>ShadowLinearBorder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,20 +141,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -152,8 +182,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -174,8 +207,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}" name="표1" displayName="표1" ref="A2:H11" totalsRowShown="0">
-  <autoFilter ref="A2:H11" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}" name="표1" displayName="표1" ref="A2:H14" totalsRowShown="0">
+  <autoFilter ref="A2:H14" xr:uid="{354EB2B6-19B7-49DB-AC62-9278FDC0CB99}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{36A100E7-56AC-420F-A1E5-97EB4F3C0948}" name="UUID : String"/>
     <tableColumn id="2" xr3:uid="{78A49022-DCE6-4CA9-A406-02645D160AEF}" name="Count : Integer"/>
@@ -487,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,6 +634,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521423A-07E0-496D-9B3A-7414AE410C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687822D9-971B-4B3D-AC33-94B91564F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>../PipelineLayoutTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,14 @@
   </si>
   <si>
     <t>ShadowLinearBorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBL_Irradiance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBL_Radiance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,6 +682,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
+++ b/Assets/bin/graphics/table/PipelineLayoutTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menew\Documents\GitHub\REngine\Assets\bin\graphics\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687822D9-971B-4B3D-AC33-94B91564F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628148F1-2858-4803-8D9F-252737A106B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="25410" windowHeight="11385" xr2:uid="{A66BFFD3-44BC-431C-A43B-437626919F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>../PipelineLayoutTable.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkyBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sampler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,13 @@
   <si>
     <t>IBL_Radiance</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox-Cubed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skybox-Panoramic</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD8BBF2-956F-48E9-BBE6-729EE7E2F5E2}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,19 +575,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -595,22 +598,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -621,19 +624,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -644,19 +647,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -667,13 +670,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -684,19 +687,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -707,24 +710,47 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
